--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,57 +43,51 @@
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,24 +97,33 @@
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
@@ -130,151 +133,154 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>increased</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>toilet</t>
-  </si>
-  <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -851,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6472602739726028</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>0.9130434782608695</v>
@@ -901,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8083333333333333</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,37 +1057,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5172413793103449</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4324324324324325</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4210526315789473</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3137254901960784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3003875968992248</v>
+        <v>0.3042635658914729</v>
       </c>
       <c r="C14">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,49 +1307,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2909090909090909</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>114</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="L15">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>16</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>39</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L15">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>17</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2433862433862434</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2281879194630873</v>
+        <v>0.225</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.725</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2266666666666667</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.6886792452830188</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2207792207792208</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1625</v>
+        <v>0.064343163538874</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,37 +1607,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1349206349206349</v>
+        <v>0.005632869449966865</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>218</v>
+        <v>3001</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,87 +1657,63 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.04289544235924933</v>
+        <v>0.005056890012642225</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>357</v>
+        <v>3148</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L22">
+        <v>39</v>
+      </c>
+      <c r="M22">
+        <v>39</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K22">
-        <v>0.66</v>
-      </c>
-      <c r="L22">
-        <v>33</v>
-      </c>
-      <c r="M22">
-        <v>33</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.005310321938267508</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>110</v>
-      </c>
-      <c r="E23">
-        <v>0.85</v>
-      </c>
-      <c r="F23">
-        <v>0.15</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2997</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K23">
-        <v>0.6595744680851063</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.6111111111111112</v>
+        <v>0.5822454308093995</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.5744125326370757</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1821,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1847,12 +1829,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>0.5357142857142857</v>
@@ -1878,16 +1860,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.5056179775280899</v>
+        <v>0.4983050847457627</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1899,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.4823529411764706</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L30">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1925,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.4779661016949153</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L31">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1951,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.4743589743589743</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1977,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.4686192468619247</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L33">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2003,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.4615384615384616</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2029,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.4520547945205479</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2055,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.4418604651162791</v>
+        <v>0.45</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2081,15 +2063,15 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.375</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L37">
         <v>15</v>
@@ -2107,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.375</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2133,47 +2115,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.3658536585365854</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
         <v>16</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.3191489361702128</v>
+        <v>0.265625</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2185,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.3142857142857143</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2211,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.1386138613861386</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2237,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.1259842519685039</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2263,125 +2245,125 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.1085271317829457</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.09767441860465116</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>194</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.0815347721822542</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.07502799552071669</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L47">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>826</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.06971153846153846</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2393,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>387</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.06046511627906977</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2419,99 +2401,99 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>202</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.04776579352850539</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>618</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51">
-        <v>0.04526748971193416</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>464</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K52">
-        <v>0.04041570438799076</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>831</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>0.04</v>
+        <v>0.06950672645739911</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N53">
         <v>0.97</v>
@@ -2523,85 +2505,85 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>864</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.03975535168195719</v>
+        <v>0.05401234567901234</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>314</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K55">
-        <v>0.03517823639774859</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="L55">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2057</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>0.03041087026852151</v>
+        <v>0.04565701559020045</v>
       </c>
       <c r="L56">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M56">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N56">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2997</v>
+        <v>857</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2609,25 +2591,25 @@
         <v>83</v>
       </c>
       <c r="K57">
-        <v>0.02691511387163561</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>940</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2635,25 +2617,25 @@
         <v>84</v>
       </c>
       <c r="K58">
-        <v>0.02300884955752212</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="L58">
         <v>13</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N58">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>552</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2661,25 +2643,25 @@
         <v>85</v>
       </c>
       <c r="K59">
-        <v>0.01816608996539792</v>
+        <v>0.03938115330520394</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N59">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="O59">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1135</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2687,25 +2669,129 @@
         <v>86</v>
       </c>
       <c r="K60">
-        <v>0.01693320790216369</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N60">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>3135</v>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61">
+        <v>0.02880258899676376</v>
+      </c>
+      <c r="L61">
+        <v>89</v>
+      </c>
+      <c r="M61">
+        <v>106</v>
+      </c>
+      <c r="N61">
+        <v>0.84</v>
+      </c>
+      <c r="O61">
+        <v>0.16</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62">
+        <v>0.02068252326783868</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>21</v>
+      </c>
+      <c r="N62">
+        <v>0.95</v>
+      </c>
+      <c r="O62">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63">
+        <v>0.01645021645021645</v>
+      </c>
+      <c r="L63">
+        <v>19</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>0.76</v>
+      </c>
+      <c r="O63">
+        <v>0.24</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64">
+        <v>0.01161695447409733</v>
+      </c>
+      <c r="L64">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>53</v>
+      </c>
+      <c r="N64">
+        <v>0.7</v>
+      </c>
+      <c r="O64">
+        <v>0.3</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3148</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,139 +103,151 @@
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>credit</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>available</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>health</t>
@@ -235,49 +256,55 @@
     <t>online</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -638,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -807,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6301369863013698</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6206896551724138</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1007,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4333333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.796875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3888888888888889</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3733333333333334</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3529411764705883</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.828125</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7464788732394366</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3042635658914729</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C14">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D14">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2348993288590604</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2328042328042328</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.225</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1555555555555556</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.7125</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1071428571428571</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.6792452830188679</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.064343163538874</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,37 +1634,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005632869449966865</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3001</v>
+        <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,89 +1684,137 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005056890012642225</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>218</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.07795698924731183</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0.03</v>
+      </c>
+      <c r="F23">
+        <v>0.97</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>343</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.00576</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3107</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E22">
-        <v>0.7</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3148</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="L22">
-        <v>39</v>
-      </c>
-      <c r="M22">
-        <v>39</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="L23">
-        <v>55</v>
-      </c>
-      <c r="M23">
-        <v>55</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1755,17 +1830,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004298941798941799</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <v>0.86</v>
+      </c>
+      <c r="F25">
+        <v>0.14</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3011</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.5822454308093995</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1803,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1829,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5357142857142857</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1860,16 +1959,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.4983050847457627</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L29">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1881,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>148</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.4943820224719101</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1907,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.4888888888888889</v>
+        <v>0.587467362924282</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1933,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4794117647058824</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L32">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1959,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4769230769230769</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1985,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4743589743589743</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2011,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4657534246575342</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2037,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2063,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.4411764705882353</v>
+        <v>0.4983050847457627</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2089,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.4225941422594142</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L38">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2115,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.3720930232558139</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2141,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.265625</v>
+        <v>0.4375</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2167,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.2571428571428571</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2193,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.2083333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2219,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.1732283464566929</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2245,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.1368421052631579</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2271,47 +2370,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.1153846153846154</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
         <v>15</v>
       </c>
-      <c r="M45">
-        <v>16</v>
-      </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.09090909090909091</v>
+        <v>0.25</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2323,15 +2422,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.0880503144654088</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L47">
         <v>14</v>
@@ -2349,15 +2448,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.08588957055214724</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L48">
         <v>14</v>
@@ -2375,99 +2474,99 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.07692307692307693</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>384</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.07567567567567568</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>171</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.07476635514018691</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.06976744186046512</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2479,67 +2578,67 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>200</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.06950672645739911</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L53">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>830</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.05401234567901234</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>613</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.04887218045112782</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="L55">
         <v>13</v>
@@ -2557,241 +2656,397 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>253</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.04565701559020045</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L56">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>857</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.04220779220779221</v>
+        <v>0.06718924972004479</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>295</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.03975535168195719</v>
+        <v>0.06656346749226007</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>314</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.03938115330520394</v>
+        <v>0.05993340732519423</v>
       </c>
       <c r="L59">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M59">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="N59">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>2049</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.02886836027713626</v>
+        <v>0.05420991926182238</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.02880258899676376</v>
+        <v>0.05</v>
       </c>
       <c r="L61">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="O61">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3001</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.02068252326783868</v>
+        <v>0.04905660377358491</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>947</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.01645021645021645</v>
+        <v>0.04353932584269663</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N63">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>1136</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.01161695447409733</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="L64">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N64">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>3148</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65">
+        <v>0.04234527687296417</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+      <c r="N65">
+        <v>0.93</v>
+      </c>
+      <c r="O65">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>0.02682611506140918</v>
+      </c>
+      <c r="L66">
+        <v>83</v>
+      </c>
+      <c r="M66">
+        <v>96</v>
+      </c>
+      <c r="N66">
+        <v>0.86</v>
+      </c>
+      <c r="O66">
+        <v>0.14</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K67">
+        <v>0.02585315408479835</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>0.96</v>
+      </c>
+      <c r="O67">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68">
+        <v>0.02387684574300974</v>
+      </c>
+      <c r="L68">
+        <v>76</v>
+      </c>
+      <c r="M68">
+        <v>94</v>
+      </c>
+      <c r="N68">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69">
+        <v>0.02292768959435626</v>
+      </c>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="M69">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70">
+        <v>0.01295336787564767</v>
+      </c>
+      <c r="L70">
+        <v>15</v>
+      </c>
+      <c r="M70">
+        <v>18</v>
+      </c>
+      <c r="N70">
+        <v>0.83</v>
+      </c>
+      <c r="O70">
+        <v>0.17</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
